--- a/Data/Transitions/19371967Translation.xlsx
+++ b/Data/Transitions/19371967Translation.xlsx
@@ -28,10 +28,10 @@
     <t>{1.0: 1.0, 886.0: 0.0010655856774592443}</t>
   </si>
   <si>
-    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 152.0: 1.7512315030382182e-06}</t>
-  </si>
-  <si>
-    <t>{5.0: 0.9810626254491548, 403.0: 0.005887612687734961}</t>
+    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 152.0: 1.7174174533209238e-06}</t>
+  </si>
+  <si>
+    <t>{5.0: 0.9810626254491548, 403.0: 0.005871187763315918}</t>
   </si>
   <si>
     <t>{6.0: 1.0, 561.0: 0.0047579584709249965, 979.0: 7.0703902341199035e-06}</t>
@@ -67,13 +67,13 @@
     <t>{18.0: 1.0}</t>
   </si>
   <si>
-    <t>{19.0: 1.0, 636.0: 0.002858231707317073, 423.0: 0.0003800630092153496, 477.0: 0.00025028495136528975}</t>
+    <t>{19.0: 1.0, 636.0: 0.002858231707317073, 423.0: 0.0003800630092153496, 477.0: 0.0002502803258980169}</t>
   </si>
   <si>
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0}</t>
@@ -94,7 +94,7 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.001379178879419197, 246.0: 0.0019479775409648218}</t>
+    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.0013872263249506789, 246.0: 0.0019479775409648218}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -103,7 +103,7 @@
     <t>{48.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.8927088692332578}</t>
+    <t>{49.0: 0.8862224855942327}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -157,10 +157,10 @@
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993500645023944, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.985751361164705}</t>
+    <t>{79.0: 0.9993781418780706, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9857571080201947}</t>
   </si>
   <si>
     <t>{82.0: 0.9989678560896491, 914.0: 0.001365578724140128, 110.0: 0.0001885338002122541}</t>
@@ -172,7 +172,7 @@
     <t>{84.0: 0.6814142894857135}</t>
   </si>
   <si>
-    <t>{85.0: 0.9895784953063307, 178.0: 0.008695627667129929, 492.0: 0.003418852880658436, 97.0: 1.3219344149476795e-05, 696.0: 3.4452665911908995e-06}</t>
+    <t>{85.0: 0.9895402914516633, 178.0: 0.008741692524372261, 492.0: 0.003418852880658436, 97.0: 1.317900243106368e-05, 696.0: 3.34744081004416e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.8987559555320275, 694.0: 0.006483790523690773}</t>
@@ -184,13 +184,13 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728, 212.0: 1.4030499998860047e-06}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.96351849239523, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 92.0: 0.04376513415565631, 858.0: 0.004867508316901873}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9562348658443437, 91.0: 0.03648150760476995, 858.0: 0.10635135141719504}</t>
+    <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728, 212.0: 1.3973902580550808e-06}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.96351849239523, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 92.0: 0.04376513415565631, 858.0: 0.00453890631355781}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9562348658443437, 91.0: 0.03648150760476995, 858.0: 0.09917164778675883}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -202,7 +202,7 @@
     <t>{96.0: 1.0, 100.0: 0.001081665765278529}</t>
   </si>
   <si>
-    <t>{97.0: 0.9722904830708197}</t>
+    <t>{97.0: 0.9723237186088487}</t>
   </si>
   <si>
     <t>{98.0: 0.801192063367579}</t>
@@ -226,10 +226,10 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.008041738771458164}</t>
-  </si>
-  <si>
-    <t>{107.0: -0.005397783378865379, 505.0: 0.009305654974946313}</t>
+    <t>{107.0: 0.39533413779233467}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.6046658622076654, 505.0: 0.009305654974946313}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
@@ -250,13 +250,13 @@
     <t>{142.0: 0.9962324013484037}</t>
   </si>
   <si>
-    <t>{144.0: 0.04837837837837838}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9516216216216217}</t>
-  </si>
-  <si>
-    <t>{145.0: 0.9974893393037774, 743.0: 0.002920931244925139, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.031023147610285164, 152.0: 0.0003658764490503502}</t>
+    <t>{144.0: 0.0447239110518864}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9552760889481136}</t>
+  </si>
+  <si>
+    <t>{145.0: 0.9974893393037774, 743.0: 0.0029287602462860877, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.031022815778396627, 152.0: 0.0003658795242960575}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -274,7 +274,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054}</t>
+    <t>{152.0: 0.9280286630608138}</t>
   </si>
   <si>
     <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851}</t>
@@ -304,13 +304,13 @@
     <t>{171.0: 0.934845750020056}</t>
   </si>
   <si>
-    <t>{172.0: 1.0, 81.0: 0.013738694929124806}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9233712163834815, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.511520929137317e-06, 831.0: 0.004032258064516129}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873}</t>
+    <t>{172.0: 1.0, 81.0: 0.013738775024671702}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9233712163834815, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.4933219741992875e-06, 831.0: 0.004032258064516129}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -322,40 +322,40 @@
     <t>{177.0: 1.0, 562.0: 0.0005025757004648825}</t>
   </si>
   <si>
-    <t>{178.0: 0.9761333054798886, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.531692820600847, 850.0: 0.001415488374311739}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.46830717939915295, 850.0: 0.0012467412429927535}</t>
+    <t>{178.0: 0.976087630142054, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.5315600531459954, 850.0: 0.0014179661304327988}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.46843994685400464, 850.0: 0.0012495897215178515}</t>
   </si>
   <si>
     <t>{181.0: 0.9954311821816105}</t>
   </si>
   <si>
-    <t>{182.0: 1.0, 277.0: 0.0025256276927648194, 282.0: 0.0027799841143764893}</t>
+    <t>{182.0: 1.0, 277.0: 0.0025278810408921933, 282.0: 0.0028089887640449437}</t>
   </si>
   <si>
     <t>{183.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.9938086184968266, 778.0: 0.0034971470642370696, 420.0: 5.360433881417949e-06, 212.0: 4.3421902644130816e-09}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.140246459639255}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.2762533378282044, 307.0: 0.9834669117201308}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.9011118598382749}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.9989618864007118}</t>
+    <t>{184.0: 0.9938086184968266, 778.0: 0.0034971470642370696, 420.0: 5.360433881417949e-06, 212.0: 4.324674369841023e-09}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.710222727687857}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.2762728633766109, 307.0: 0.9834669117201308}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.9116096973347387}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9989611160581775}</t>
   </si>
   <si>
     <t>{205.0: 1.0, 206.0: 0.01639538570799976, 578.0: 0.0029847546889122914}</t>
@@ -364,22 +364,22 @@
     <t>{206.0: 0.9826925753783399, 578.0: 0.17889766818286298}</t>
   </si>
   <si>
-    <t>{207.0: 0.5561023622047244, 477.0: 0.043134285620362055}</t>
+    <t>{207.0: 0.5561023622047244, 477.0: 0.043143765683135764}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.00019169446549450865}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.0001674437961378676}</t>
   </si>
   <si>
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9915406543532144, 681.0: 0.001947570591010176}</t>
+    <t>{212.0: 0.9915438969641641, 681.0: 0.001947570591010176}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -400,19 +400,19 @@
     <t>{219.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144}</t>
-  </si>
-  <si>
-    <t>{222.0: 1.0, 503.0: 0.04728284124946513}</t>
+    <t>{221.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269}</t>
+  </si>
+  <si>
+    <t>{222.0: 1.0, 503.0: 0.047506448839208945}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -421,7 +421,7 @@
     <t>{226.0: 0.7384353461125667, 216.0: 0.033211370672670985}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -442,7 +442,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10729113076674225}</t>
+    <t>{49.0: 0.11377751440576732}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -451,19 +451,19 @@
     <t>{237.0: 0.9952565761103924}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8194220168160811}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18057798318391893}</t>
-  </si>
-  <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{240.0: 1.0, 241.0: 0.8102185762263944}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.18978142377360568}</t>
+  </si>
+  <si>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -472,10 +472,10 @@
     <t>{244.0: 1.0, 565.0: 0.007684666063101304}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0365901940626062e-06}</t>
+    <t>{858.0: 0.262525543590365}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0484736044753086e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -496,7 +496,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9974317067476068}</t>
+    <t>{253.0: 0.9974753270599036}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -520,22 +520,22 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9747919123771428, 79.0: 0.0006499354976056577}</t>
-  </si>
-  <si>
-    <t>{263.0: 0.9979662270430174, 595.0: 0.0017117774048765308}</t>
+    <t>{262.0: 0.9747919123771428, 79.0: 0.0006218581219293059}</t>
+  </si>
+  <si>
+    <t>{263.0: 0.9979662270430174, 595.0: 0.0017292620441237876}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.06571137480117686}</t>
+    <t>{400.0: 0.06158198808299092}</t>
   </si>
   <si>
     <t>{267.0: 1.0, 887.0: 0.0039276426066777795}</t>
   </si>
   <si>
-    <t>{270.0: 0.9987689782519491, 479.0: 0.02114577354250803, 942.0: 0.0001945930080598899}</t>
+    <t>{270.0: 0.9987689782519491, 479.0: 0.020519381779662598, 942.0: 0.00018904612772049995}</t>
   </si>
   <si>
     <t>{271.0: 0.9851791367190204, 237.0: 0.004743423889607589}</t>
@@ -556,7 +556,7 @@
     <t>{276.0: 0.9998061451972473, 167.0: 0.0005353319057815846, 596.0: 0.0005353319057815846}</t>
   </si>
   <si>
-    <t>{277.0: 0.9936107335861508}</t>
+    <t>{277.0: 0.9936084889661906}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -568,7 +568,7 @@
     <t>{281.0: 1.0, 599.0: 0.005091539378182212, 621.0: 0.04563312178906014}</t>
   </si>
   <si>
-    <t>{282.0: 0.9972200158856235, 277.0: 0.003599134333067344}</t>
+    <t>{282.0: 0.9971910112359551, 277.0: 0.0035991262024297707}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -577,10 +577,10 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.01593502092076081}</t>
-  </si>
-  <si>
-    <t>{286.0: 1.0, 909.0: 0.11458663141263672, 306.0: 0.011054877862037047, 788.0: 0.026298366265383358, 142.0: 1.797534470597053e-05}</t>
+    <t>{285.0: 1.0, 311.0: 0.11340988641029195}</t>
+  </si>
+  <si>
+    <t>{286.0: 1.0, 909.0: 0.11458663141263672, 306.0: 0.011054877862037047, 788.0: 0.026172626732387502, 142.0: 1.797534470597053e-05}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
@@ -607,10 +607,10 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9942090158563912, 298.0: 0.12648512248974872}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.8735148775102513, 297.0: 0.004759120184553127, 749.0: 0.0005137426149499101}</t>
+    <t>{297.0: 0.9941760838557405, 298.0: 0.12648512248974872}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.8735148775102513, 297.0: 0.004786184211172354, 749.0: 0.0005137426149499101}</t>
   </si>
   <si>
     <t>{299.0: 0.9421714285714285, 443.0: 0.013510568751361952}</t>
@@ -619,7 +619,7 @@
     <t>{300.0: 1.0}</t>
   </si>
   <si>
-    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.1156257142025587e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.1849036593952016e-05, 152.0: 1.3974350662682385e-07}</t>
+    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.118615937012485e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.1848909853485841e-05, 152.0: 1.3974468119168037e-07}</t>
   </si>
   <si>
     <t>{303.0: 0.9475683890577508, 840.0: 0.10136869118905047}</t>
@@ -637,13 +637,13 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.0010381135992881506}</t>
+    <t>{309.0: 1.0, 204.0: 0.0010388839418224993}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{226.0: 0.2608672648665498, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688}</t>
@@ -664,7 +664,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
+    <t>{242.0: 0.3128610519914868}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -673,16 +673,16 @@
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146}</t>
+    <t>{400.0: 0.9375071729331006}</t>
   </si>
   <si>
     <t>{401.0: 1.0, 16.0: 0.005869490159972379}</t>
   </si>
   <si>
-    <t>{402.0: 0.9631065512242976, 141.0: 0.001462755443927208}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8742309217950237}</t>
+    <t>{402.0: 0.9631027328570206, 141.0: 0.001462755443927208}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8717920424772339}</t>
   </si>
   <si>
     <t>{405.0: 1.0, 404.0: 1.0, 907.0: 1.0}</t>
@@ -694,7 +694,7 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -718,22 +718,22 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 1.0, 922.0: 0.07468970214579618, 887.0: 0.003503764981820322}</t>
+    <t>{418.0: 1.0, 922.0: 0.07468428293331203, 887.0: 0.003503764981820322}</t>
   </si>
   <si>
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 0.9911644356572448, 212.0: 0.0008028873516867112}</t>
+    <t>{420.0: 0.9911644356572448, 212.0: 0.0007996485967383983}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14934163476504986}</t>
-  </si>
-  <si>
-    <t>{423.0: 0.9970319608416004, 202.0: 0.00024149688320387804, 307.0: 0.0008238054895957766, 853.0: 1.403420134868675e-05, 477.0: 1.2265567663800832e-05, 207.0: 6.229748827025319e-06, 680.0: 4.191588781850509e-08}</t>
+    <t>{597.0: 0.13779986025929664}</t>
+  </si>
+  <si>
+    <t>{423.0: 0.9970319608416004, 202.0: 0.00024151296023534544, 307.0: 0.0008238054895957766, 853.0: 1.403420134868675e-05, 477.0: 1.2265456117012493e-05, 207.0: 6.229748827025319e-06, 680.0: 4.191588781850509e-08}</t>
   </si>
   <si>
     <t>{424.0: 1.0}</t>
@@ -745,19 +745,19 @@
     <t>{426.0: 1.0}</t>
   </si>
   <si>
-    <t>{428.0: 0.2669725101108509, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7321078791910113}</t>
+    <t>{428.0: 0.2118598838073569, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7872205054945053}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 1.0, 431.0: 0.00019022256039566293, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.9998097774396043}</t>
+    <t>{430.0: 1.0, 431.0: 0.00012773023374632777, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.9998722697662537}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304, 304.0: 0.0031965903036760787, 833.0: 0.0007173601147776184, 17.0: 1.0928228081487114e-05, 918.0: 6.570736109710267e-07}</t>
@@ -769,7 +769,7 @@
     <t>{434.0: 1.0, 585.0: 0.2521276595744681}</t>
   </si>
   <si>
-    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5751974037386366e-06}</t>
+    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5571981727767432e-06}</t>
   </si>
   <si>
     <t>{436.0: 1.0}</t>
@@ -796,13 +796,13 @@
     <t>{475.0: 0.9825250343608875}</t>
   </si>
   <si>
-    <t>{476.0: 1.0, 402.0: 0.035199312420877364, 141.0: 5.346032149888464e-05}</t>
+    <t>{476.0: 1.0, 402.0: 0.035199172868402566, 141.0: 5.346032149888464e-05}</t>
   </si>
   <si>
     <t>{478.0: 1.0, 170.0: 0.4779653070792311}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -829,19 +829,19 @@
     <t>{489.0: 0.9861400416599904}</t>
   </si>
   <si>
-    <t>{490.0: 1.0, 503.0: 0.007702182284980745}</t>
+    <t>{490.0: 1.0, 503.0: 0.007738607050730868}</t>
   </si>
   <si>
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 97.0: 0.027692600544453445, 696.0: 0.0010033170977494122, 85.0: 0.0014245921465699139, 178.0: 0.015123639130140285}</t>
+    <t>{492.0: 0.995625, 97.0: 0.02765941663047021, 696.0: 0.0009748286553524804, 85.0: 0.0014245371484958996, 178.0: 0.015122998363626934}</t>
   </si>
   <si>
     <t>{493.0: 0.9993252361673415}</t>
   </si>
   <si>
-    <t>{494.0: 0.979825999243475, 889.0: 0.0006215198201897897, 565.0: 1.2463708207241241e-05}</t>
+    <t>{494.0: 0.979825999243475, 889.0: 0.0010856577184348603, 565.0: 1.2463708207241241e-05}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
@@ -853,19 +853,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9532064834390416, 270.0: 0.0012310217480508822, 479.0: 2.6062991219196422e-05, 942.0: 2.398434774772677e-07}</t>
-  </si>
-  <si>
-    <t>{500.0: 0.9922541481411947, 277.0: 0.00026245557621149305}</t>
+    <t>{499.0: 0.9532064834390416, 270.0: 0.0012310217480508822, 479.0: 2.5290938923166717e-05, 942.0: 2.3300673096199664e-07}</t>
+  </si>
+  <si>
+    <t>{500.0: 0.9922541481411947, 277.0: 0.0002624549833102641}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 1.0, 534.0: 0.0004564646810453041, 695.0: 0.0018017591979570605}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9450149764655541}</t>
+    <t>{502.0: 1.0, 534.0: 0.0004564646810453041, 695.0: 0.0018018564173032106}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9447549441100602}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -892,7 +892,7 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615052106698433, 141.0: 1.0046867056022953e-06}</t>
+    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615025880422153, 141.0: 1.0046867056022953e-06}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
@@ -901,7 +901,7 @@
     <t>{536.0: 1.0}</t>
   </si>
   <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 0.9993696816892531}</t>
@@ -913,10 +913,10 @@
     <t>{540.0: 1.0, 428.0: 0.0009196106981377883}</t>
   </si>
   <si>
-    <t>{542.0: 0.10260447738242569, 911.0: 0.01216659738912571}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8973955226175743, 911.0: 0.000329448166078341}</t>
+    <t>{542.0: 0.09653726996389683, 911.0: 0.012153140890196356}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9034627300361032, 911.0: 0.00032908378984788624}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -967,7 +967,7 @@
     <t>{573.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9356220484668233, 752.0: 0.04612635356536104, 728.0: 0.002418704649287826}</t>
+    <t>{580.0: 0.935665293499582, 752.0: 0.046284020554380495, 728.0: 0.002418704649287826}</t>
   </si>
   <si>
     <t>{581.0: 0.9889464225075689, 181.0: 0.004568817818389492}</t>
@@ -976,7 +976,7 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
@@ -994,7 +994,7 @@
     <t>{588.0: 1.0, 507.0: 0.0010766580534022395}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988, 10.0: 0.006268500783562598}</t>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608, 10.0: 0.006268500783562598}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -1003,16 +1003,16 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.3232683533803401, 171.0: 0.001857864099887012}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6767316466196599, 171.0: 0.003889262336894597, 85.0: 0.005397362490856421, 178.0: 4.742772284122022e-05, 492.0: 1.8647119341563785e-05, 97.0: 7.210099310416157e-08, 696.0: 1.879118509395074e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.8506583652349502}</t>
+    <t>{593.0: 0.49682353666810586, 171.0: 0.0028553076820006084}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5031764633318941, 171.0: 0.0028918187547810007, 85.0: 0.0053971541192586485, 178.0: 4.767896994673605e-05, 492.0: 1.8647119341563785e-05, 97.0: 7.188096116246882e-08, 696.0: 1.8257623376204746e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.8622001397407033}</t>
   </si>
   <si>
     <t>{598.0: 1.0, 599.0: 0.010538833469030598}</t>
@@ -1033,7 +1033,7 @@
     <t>{603.0: 0.9964699949571356}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012118805145684393}</t>
+    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012119753465340602}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
@@ -1045,7 +1045,7 @@
     <t>{607.0: 0.9993920972644377, 276.0: 0.00019373695788784293}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.5979012446107541, 610.0: 0.46377929329690437}</t>
@@ -1099,10 +1099,10 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
-  </si>
-  <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{627.0: 0.432346990389479}</t>
+  </si>
+  <si>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0, 603.0: 0.0035300050428643467}</t>
@@ -1123,19 +1123,19 @@
     <t>{636.0: 0.997141768292683}</t>
   </si>
   <si>
-    <t>{702.0: 0.0014527342533983605}</t>
+    <t>{702.0: 0.001321003963011889}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
-  </si>
-  <si>
-    <t>{680.0: 0.9762594508880611, 481.0: 0.018092175285225227, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 202.0: 3.5536017918302225e-05, 477.0: 4.292948682330291e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
-  </si>
-  <si>
-    <t>{681.0: 0.9038226351951332, 171.0: 0.004345719985261719, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.007039869053910691}</t>
+    <t>{679.0: 0.5064363143631436}</t>
+  </si>
+  <si>
+    <t>{680.0: 0.9762594508880611, 481.0: 0.018092175285225227, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 202.0: 3.553505782516351e-05, 477.0: 4.292909640954372e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
+  </si>
+  <si>
+    <t>{681.0: 0.9037440348804595, 171.0: 0.004345719985261719, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.00703989207253523}</t>
   </si>
   <si>
     <t>{682.0: 1.0, 575.0: 0.001903772931810315}</t>
@@ -1153,7 +1153,7 @@
     <t>{686.0: 0.989437624892949}</t>
   </si>
   <si>
-    <t>{687.0: 0.9931478405315615, 174.0: 0.006537175659195088}</t>
+    <t>{687.0: 0.9931478405315615, 174.0: 0.006500967737618479}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1174,19 +1174,19 @@
     <t>{694.0: 0.9935162094763093, 86.0: 0.10124404446797247}</t>
   </si>
   <si>
-    <t>{695.0: 0.9726124982080356}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9989932188444743, 14.0: 0.0009894459102902375, 492.0: 0.0009375, 97.0: 3.624939584340261e-06}</t>
+    <t>{695.0: 0.9726649784458168}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9990218056462141, 14.0: 0.0009894459102902375, 492.0: 0.0009375, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.20776196468091965}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7922380353190803, 683.0: 0.00887163848073191}</t>
+    <t>{698.0: 0.4351638564266561}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5648361435733439, 683.0: 0.00887163848073191}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1195,10 +1195,10 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
-  </si>
-  <si>
-    <t>{704.0: 1.0, 477.0: 0.00024935669419516365, 538.0: 0.0006303183107469272, 906.0: 0.029413383692964333}</t>
+    <t>{702.0: 0.9986789960369881}</t>
+  </si>
+  <si>
+    <t>{704.0: 1.0, 477.0: 0.00024935208588283014, 538.0: 0.0006303183107469272, 906.0: 0.029413383692964333}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
@@ -1240,13 +1240,13 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1267,7 +1267,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.953873646434639, 580.0: 0.06437795153317666}</t>
+    <t>{752.0: 0.9537159794456196, 580.0: 0.0643347065004179}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1309,7 +1309,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.00421455938697318}</t>
+    <t>{770.0: 1.0, 992.0: 0.004208110175975516}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1318,7 +1318,7 @@
     <t>{772.0: 1.0, 493.0: 0.0006747638326585695}</t>
   </si>
   <si>
-    <t>{992.0: 0.34352944792819384}</t>
+    <t>{992.0: 0.34353167279893726}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1330,34 +1330,34 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9965028529357629, 420.0: 0.0015274415281050933, 212.0: 1.2372956890280223e-06, 184.0: 0.006191381503173426}</t>
+    <t>{778.0: 0.9965028529357629, 420.0: 0.0015274415281050933, 212.0: 1.2323045809641737e-06, 184.0: 0.006191381503173426}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 0.9969110378912686, 81.0: 0.0005083687087665827, 435.0: 0.0032377428307123032}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 0.9969110378912686, 81.0: 0.0005025597569608143, 435.0: 0.0032377428307123032}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9927452636939863, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9927452636939863, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 1.0, 500.0: 0.0077458518588053235, 277.0: 2.048811805584243e-06}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.040079086164010985}</t>
-  </si>
-  <si>
-    <t>{789.0: 1.0, 681.0: 0.07824284302484964, 171.0: 0.0003762037742763266, 90.0: 5.628805209951758e-05, 420.0: 9.756350621408776e-08, 212.0: 0.0006094330323799761}</t>
+    <t>{787.0: 1.0, 500.0: 0.0077458518588053235, 277.0: 2.0488071772084432e-06}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.035008805891847364}</t>
+  </si>
+  <si>
+    <t>{789.0: 1.0, 681.0: 0.07823603868974756, 171.0: 0.0003762037742763266, 90.0: 5.628805209951758e-05, 420.0: 9.756350621408776e-08, 212.0: 0.0006094350250747332}</t>
   </si>
   <si>
     <t>{831.0: 0.9948604959744661}</t>
@@ -1369,7 +1369,7 @@
     <t>{833.0: 0.9992826398852224, 17.0: 0.015223021717511548, 918.0: 0.0009153035400826402}</t>
   </si>
   <si>
-    <t>{834.0: 1.0, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -1.0635624241439053e-05}</t>
+    <t>{834.0: 1.0, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -9.290144567754873e-06}</t>
   </si>
   <si>
     <t>{835.0: 1.0, 756.0: 0.012552301255230125, 836.0: 0.0061525840853158325}</t>
@@ -1396,7 +1396,7 @@
     <t>{842.0: 1.0, 606.0: 0.002308136180034622}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1408,22 +1408,22 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 634.0: 0.9198774700023947}</t>
+    <t>{848.0: 0.9228851136919364, 634.0: 0.9196454994271116}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0, 7.0: 0.1141255380919011}</t>
   </si>
   <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.0022079438801396994}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.999936846093931, 202.0: 0.7234117933368668, 477.0: 0.9541358260488635, 307.0: 0.015502624280626615, 207.0: 0.44386960392555397, 680.0: 0.022607149261286093, 481.0: 0.0003636125129370947}</t>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0022801572723862235}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.999936846093931, 202.0: 0.7233922485836859, 477.0: 0.9541263959185341, 307.0: 0.015502624280626615, 207.0: 0.44386960392555397, 680.0: 0.022607149261286093, 481.0: 0.0003636125129370947}</t>
   </si>
   <si>
     <t>{854.0: 1.0}</t>
@@ -1435,10 +1435,10 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 1.0, 695.0: 0.01804123711340206}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.06410669123707292}</t>
+    <t>{857.0: 1.0, 695.0: 0.017988252569750368}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.308581204304183}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1447,7 +1447,7 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.6808248608561583, 619.0: 0.0001431947985895543}</t>
+    <t>{861.0: 0.6849891000612596, 619.0: 0.0001431947985895543}</t>
   </si>
   <si>
     <t>{863.0: 1.0}</t>
@@ -1465,7 +1465,7 @@
     <t>{887.0: 0.9493218332843075, 619.0: 0.0006435006435006435}</t>
   </si>
   <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1483,28 +1483,28 @@
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
   </si>
   <si>
     <t>{905.0: 1.0, 499.0: 0.04679351656095842}</t>
   </si>
   <si>
-    <t>{906.0: 0.9635111446089225, 477.0: 0.0021750516307268886, 202.0: 5.7835933806805066e-05, 307.0: 0.00020589697722602968, 680.0: 0.0004344053635620134, 481.0: 8.050461541042687e-06}</t>
-  </si>
-  <si>
-    <t>{788.0: 0.5007363616604456}</t>
+    <t>{906.0: 0.9635111446089225, 477.0: 0.0021750114340227723, 202.0: 5.784002164275325e-05, 307.0: 0.00020589697722602968, 680.0: 0.0004344053635620134, 481.0: 8.050461541042687e-06}</t>
+  </si>
+  <si>
+    <t>{788.0: 0.49850949482794676}</t>
   </si>
   <si>
     <t>{909.0: 0.8854133685873632}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538, 174.0: 4.510282181757012e-05}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.3191751391438416}</t>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538, 174.0: 4.4853007598036755e-05}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.3150108999387404}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
@@ -1522,7 +1522,7 @@
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125, 695.0: 0.007544505480605318}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632, 695.0: 0.0075449125671298}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1531,7 +1531,7 @@
     <t>{921.0: 0.9903586579251832, 686.0: 0.0105623751070511}</t>
   </si>
   <si>
-    <t>{922.0: 0.9203528910639235, 887.0: 0.043174629674277896}</t>
+    <t>{922.0: 0.9202861136135684, 887.0: 0.043174629674277896}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1540,7 +1540,7 @@
     <t>{924.0: 1.0}</t>
   </si>
   <si>
-    <t>{925.0: 1.0, 263.0: 0.0020337729569826204, 595.0: 3.4884613327317675e-06}</t>
+    <t>{925.0: 1.0, 263.0: 0.0020337729569826204, 595.0: 3.5240935871107877e-06}</t>
   </si>
   <si>
     <t>{926.0: 1.0}</t>
@@ -1549,7 +1549,7 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{928.0: 1.0, 922.0: 0.0015375823955721872, 887.0: 7.212945291645471e-05}</t>
+    <t>{928.0: 1.0, 922.0: 0.0015374708341992789, 887.0: 7.212945291645471e-05}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1570,25 +1570,25 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035995500562429695}</t>
-  </si>
-  <si>
-    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0018182412250789639}</t>
+    <t>{937.0: 1.0, 85.0: 0.0036380172805820826}</t>
+  </si>
+  <si>
+    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.9597625493653908}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 848.0: 0.07675609826841082, 634.0: 0.07647622188456976}</t>
+    <t>{942.0: 0.9597522834883334}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 848.0: 0.07711488630806371, 634.0: 0.07684418903273924}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
   </si>
   <si>
-    <t>{971.0: 0.9959752321981424, 152.0: 0.00043336244194414986}</t>
+    <t>{971.0: 0.9959752321981424, 152.0: 0.00042499476517949327}</t>
   </si>
   <si>
     <t>{972.0: 1.0}</t>
@@ -1600,7 +1600,7 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9941776158300827, 152.0: 0.07117800722589049}</t>
+    <t>{975.0: 0.9941776158300827, 152.0: 0.07117860548757622}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
@@ -1627,13 +1627,13 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.3755864039975379}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.27666958868729524}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.09888814016172506}</t>
+    <t>{992.0: 0.4315215930889716}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.22073862393611562}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.08839030266526125}</t>
   </si>
   <si>
     <t>{1.0: 0.9935835739493104, 886.0: 0.006416426050689767}</t>
@@ -1702,7 +1702,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680975, 178.0: 0.023807093342605865, 492.0: 0.00889676964238059, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
+    <t>{85.0: 0.9672733850680975, 178.0: 0.023807093342605865, 492.0: 0.008896769642380589, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180955, 694.0: 0.011355364681904206}</t>
@@ -1804,10 +1804,10 @@
     <t>{177.0: 0.9988607234406152, 562.0: 0.0011392765593847907}</t>
   </si>
   <si>
-    <t>{178.0: 0.9862602263863139, 681.0: 0.007171753079185206, 768.0: 0.0065680205345009825}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5374525139860676, 180.0: 0.4623405296443513, 850.0: 0.00020695636958117784}</t>
+    <t>{178.0: 0.9862044958405798, 681.0: 0.007227483624919332, 768.0: 0.0065680205345009825}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5383826591317817, 180.0: 0.4614108006709617, 850.0: 0.00020654019725647354}</t>
   </si>
   <si>
     <t>{180.0: 0.9995525727069354, 850.0: 0.0004474272930648772}</t>
@@ -1816,7 +1816,7 @@
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9971718123968886, 277.0: 0.0020032995522036297, 282.0: 0.0008248880509073771}</t>
+    <t>{182.0: 0.997160771323791, 277.0: 0.0020111203123151546, 282.0: 0.0008281083638944757}</t>
   </si>
   <si>
     <t>{184.0: 0.9861056345130486, 778.0: 0.013866895408883109, 420.0: 2.7465559220133378e-05, 212.0: 4.518848177053863e-09}</t>
@@ -1843,7 +1843,7 @@
     <t>{206.0: 0.8017747931406646, 578.0: 0.19822520685933562}</t>
   </si>
   <si>
-    <t>{207.0: 0.4623000761614623, 477.0: 0.5376999238385377}</t>
+    <t>{207.0: 0.44800625488663015, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.9980857016639668, 688.0: 0.001914298336032985}</t>
@@ -1864,7 +1864,7 @@
     <t>{221.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 0.8492496589358797, 503.0: 0.15075034106412005}</t>
+    <t>{222.0: 0.8489405331510597, 503.0: 0.15105946684894053}</t>
   </si>
   <si>
     <t>{627.0: 1.0}</t>
@@ -1873,7 +1873,7 @@
     <t>{226.0: 0.9845670939053099, 216.0: 0.015432906094690033}</t>
   </si>
   <si>
-    <t>{227.0: 0.9975617827628104, 297.0: 0.00018045618356780222, 844.0: 0.002257761053621825}</t>
+    <t>{227.0: 0.9975636241524383, 297.0: 0.00017861479393955929, 844.0: 0.002257761053621825}</t>
   </si>
   <si>
     <t>{230.0: 0.9967205946655008, 581.0: 0.003279405334499344}</t>
@@ -1888,13 +1888,13 @@
     <t>{238.0: 0.9953091684434968, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{240.0: 0.23802619996893287, 241.0: 0.7619738000310673}</t>
+    <t>{240.0: 0.23802619996893298, 241.0: 0.7619738000310673}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -1918,7 +1918,7 @@
     <t>{262.0: 0.9992897727272732, 79.0: 0.0007102272727272727}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549508, 595.0: 0.0013976754450492866}</t>
+    <t>{263.0: 0.9986024273630009, 595.0: 0.0013975726369988967}</t>
   </si>
   <si>
     <t>{400.0: 1.0}</t>
@@ -1927,13 +1927,13 @@
     <t>{267.0: 0.9888487040385775, 887.0: 0.011151295961422548}</t>
   </si>
   <si>
-    <t>{270.0: 0.9873640905083753, 479.0: 0.012356147657862112, 942.0: 0.0002797618337629159}</t>
+    <t>{270.0: 0.9873640905083753, 479.0: 0.012350620848352221, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{271.0: 0.9988083631242551, 237.0: 0.001191636875744773}</t>
   </si>
   <si>
-    <t>{275.0: 0.9445925803714912, 921.0: 0.009442148944137254, 77.0: 0.045965270684371805}</t>
+    <t>{275.0: 0.9445925803714909, 921.0: 0.009442148944137254, 77.0: 0.045965270684371805}</t>
   </si>
   <si>
     <t>{276.0: 0.9986445928937944, 167.0: 0.0005680531756420232, 596.0: 0.0007873539305638049}</t>
@@ -1954,10 +1954,10 @@
     <t>{286.0: 0.8543047303036019, 909.0: 0.09067170299822308, 306.0: 0.012640639376748848, 788.0: 0.04237388612014246, 142.0: 9.04120128346812e-06}</t>
   </si>
   <si>
-    <t>{297.0: 0.960343291082585, 298.0: 0.0396567089174152}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.9856576766219584, 297.0: 0.013916655611733712, 749.0: 0.0004256677663083963}</t>
+    <t>{297.0: 0.9603432320318249, 298.0: 0.039656767968175}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.9856591443139645, 297.0: 0.013915187919726558, 749.0: 0.0004256677663083963}</t>
   </si>
   <si>
     <t>{299.0: 0.9843037974683544, 443.0: 0.01569620253164557}</t>
@@ -1975,7 +1975,7 @@
     <t>{306.0: 0.9980565642100955, 142.0: 0.0019434357899043623}</t>
   </si>
   <si>
-    <t>{309.0: 0.9989234081820978, 204.0: 0.001076591817902184}</t>
+    <t>{309.0: 0.998976458546571, 204.0: 0.0010235414534288639}</t>
   </si>
   <si>
     <t>{226.0: 0.9417289819392755, 5.0: 0.05300183025736112, 759.0: 0.005269187803363386}</t>
@@ -1996,10 +1996,10 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.494820544803916, 404.0: 0.3930108881632079, 907.0: 0.1121685670328759}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{405.0: 0.49483827665109575, 404.0: 0.39299315631602844, 907.0: 0.1121685670328759}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917457, 403.0: 0.05686174290825453}</t>
   </si>
   <si>
     <t>{410.0: 0.9895157952821079, 77.0: 0.010484204717892123}</t>
@@ -2017,7 +2017,7 @@
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.998756373585375, 202.0: 0.000823971900639049, 307.0: 0.00018654015024926568, 853.0: 0.00021152025240432206, 477.0: 2.1032372732886715e-05, 207.0: 5.350025699706738e-07, 680.0: 2.6736029552295963e-08}</t>
+    <t>{423.0: 0.998756373585375, 202.0: 0.000823971900639049, 307.0: 0.00018654015024926568, 853.0: 0.00021152025240432225, 477.0: 2.104891443709804e-05, 207.0: 5.18460865759347e-07, 680.0: 2.6736029552295963e-08}</t>
   </si>
   <si>
     <t>{428.0: 0.9419839419839421, 755.0: 0.058016058016058004}</t>
@@ -2026,7 +2026,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 0.9996247593749247, 431.0: 0.00018684574941587375, 783.0: 0.00018839487565938215}</t>
+    <t>{430.0: 0.9992810498068836, 431.0: 0.00035663135253636115, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -2059,7 +2059,7 @@
     <t>{478.0: 0.7032887077997673, 170.0: 0.29671129220023285}</t>
   </si>
   <si>
-    <t>{479.0: 0.9240044013343365, 942.0: 0.020920854369834017, 559.0: 0.0015735641227380011, 944.0: 0.053501180173092064}</t>
+    <t>{479.0: 0.9235911012950445, 942.0: 0.02133415440912519, 559.0: 0.0015735641227380011, 944.0: 0.053501180173092064}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
@@ -2068,10 +2068,10 @@
     <t>{489.0: 1.0}</t>
   </si>
   <si>
-    <t>{490.0: 0.977886977886978, 503.0: 0.022113022113022112}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.9720767471169998, 97.0: 0.011519836235458273, 696.0: 0.0004971835719633447, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
+    <t>{490.0: 0.9779141104294476, 503.0: 0.02208588957055216}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.9720767471169989, 97.0: 0.011519836235458273, 696.0: 0.0004971835719633447, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -2083,7 +2083,7 @@
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.999597044996642, 270.0: 0.0003978633004063298, 479.0: 4.978971520965257e-06, 942.0: 1.1273143066336438e-07}</t>
+    <t>{499.0: 0.999597044996642, 270.0: 0.0003978633004063298, 479.0: 4.97674446542064e-06, 942.0: 1.1495848620798401e-07}</t>
   </si>
   <si>
     <t>{500.0: 0.9993798449612404, 277.0: 0.0006201550387596901}</t>
@@ -2158,7 +2158,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9870836901367744, 752.0: 0.011803962810944783, 728.0: 0.0011123470522803114}</t>
+    <t>{580.0: 0.9873633900010385, 752.0: 0.01152426294668118, 728.0: 0.0011123470522803114}</t>
   </si>
   <si>
     <t>{581.0: 0.998159015073064, 181.0: 0.0018409849269359108}</t>
@@ -2182,7 +2182,7 @@
     <t>{593.0: 0.9966347398395027, 171.0: 0.0033652601604970216}</t>
   </si>
   <si>
-    <t>{593.0: 0.993238851288763, 171.0: 0.0033537935238321876, 85.0: 0.0032958439862501273, 178.0: 8.111922299795207e-05, 492.0: 3.031445419210871e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5504792869546685e-08}</t>
+    <t>{593.0: 0.993238851288763, 171.0: 0.0033537935238321876, 85.0: 0.0032958439862501273, 178.0: 8.111922299795207e-05, 492.0: 3.0314454192108702e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5504792869546685e-08}</t>
   </si>
   <si>
     <t>{595.0: 0.9991012043861227, 402.0: 0.0008987956138774042}</t>
@@ -2200,7 +2200,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.9960505529225911, 852.0: 0.001172884671243, 922.0: 0.002776562406166162}</t>
+    <t>{604.0: 0.9960505529225911, 852.0: 0.0011727912431587178, 922.0: 0.0027766558342504455}</t>
   </si>
   <si>
     <t>{605.0: 0.9748587570621469, 475.0: 0.025141242937853105}</t>
@@ -2242,7 +2242,7 @@
     <t>{702.0: 1.0}</t>
   </si>
   <si>
-    <t>{680.0: 0.9903684437759183, 481.0: 0.005206450047061396, 529.0: 0.0018930546760960636, 530.0: 0.0020152730341085933, 853.0: 0.00043952452920415224, 202.0: 3.239272915734558e-05, 477.0: 4.370382324335479e-05, 307.0: 4.5686685484262255e-08, 207.0: 1.1116985253964603e-06}</t>
+    <t>{680.0: 0.9903684437759183, 481.0: 0.005206450047061396, 529.0: 0.0018930546760960636, 530.0: 0.0020152730341085933, 853.0: 0.0004395245292041526, 202.0: 3.239272915734558e-05, 477.0: 4.373819576642562e-05, 307.0: 4.5686685484262255e-08, 207.0: 1.077326002325619e-06}</t>
   </si>
   <si>
     <t>{681.0: 0.9922454003977792, 171.0: 0.00432504279801037, 90.0: 0.0007631323849157586, 420.0: 1.8494445633932727e-06, 212.0: 0.002664574974731451}</t>
@@ -2263,7 +2263,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.997153492445807, 174.0: 0.0028465075541931244}</t>
+    <t>{687.0: 0.9971296091852502, 174.0: 0.002870390814749393}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972787, 208.0: 0.042517006802721094}</t>
@@ -2281,7 +2281,7 @@
     <t>{695.0: 1.0}</t>
   </si>
   <si>
-    <t>{696.0: 0.997481713457912, 14.0: 0.0005038629492777964, 492.0: 0.002010310775606779, 97.0: 4.11281720352593e-06}</t>
+    <t>{696.0: 0.997481713457912, 14.0: 0.0005038629492777964, 492.0: 0.002010310775606778, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2320,7 +2320,7 @@
     <t>{749.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.8066928545138231, 580.0: 0.19330714548617692}</t>
+    <t>{752.0: 0.8066160041894903, 580.0: 0.1933839958105095}</t>
   </si>
   <si>
     <t>{755.0: 1.0}</t>
@@ -2341,7 +2341,7 @@
     <t>{768.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571428, 992.0: 0.019642857142857142}</t>
+    <t>{770.0: 0.9801712483100496, 992.0: 0.01982875168995043}</t>
   </si>
   <si>
     <t>{772.0: 0.9989726027397261, 493.0: 0.0010273972602739725}</t>
@@ -2359,7 +2359,7 @@
     <t>{783.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047504, 889.0: 0.2047145289952496}</t>
+    <t>{785.0: 0.6852693950668323, 889.0: 0.314730604933168}</t>
   </si>
   <si>
     <t>{787.0: 0.9919894647611937, 500.0: 0.0080055674650148, 277.0: 4.967773791507788e-06}</t>
@@ -2410,13 +2410,13 @@
     <t>{851.0: 0.7625494688606541, 7.0: 0.23745053113934594}</t>
   </si>
   <si>
-    <t>{852.0: 0.9899146625290924, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8309410820611609, 202.0: 0.061239925484151046, 477.0: 0.10366767194590902, 307.0: 8.637275362269397e-05, 207.0: 0.0021017165464948633, 680.0: 0.0019535135770939608, 481.0: 9.717631567163344e-06}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9927664599940954, 695.0: 0.007233540005904925}</t>
+    <t>{852.0: 0.9898358092259582, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8309410820611617, 202.0: 0.061239925484151046, 477.0: 0.10373265476169263, 307.0: 8.637275362269397e-05, 207.0: 0.0020367337307112404, 680.0: 0.0019535135770939608, 481.0: 9.717631567163344e-06}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9926963779997018, 695.0: 0.007303622000298105}</t>
   </si>
   <si>
     <t>{861.0: 0.999875668282979, 619.0: 0.00012433171702101205}</t>
@@ -2446,7 +2446,7 @@
     <t>{909.0: 1.0}</t>
   </si>
   <si>
-    <t>{911.0: 0.9950083194675541, 687.0: 0.0049774716761021975, 174.0: 1.420885634372608e-05}</t>
+    <t>{911.0: 0.9950083194675541, 687.0: 0.0049773524584954265, 174.0: 1.432807395049614e-05}</t>
   </si>
   <si>
     <t>{861.0: 1.0}</t>
@@ -2461,7 +2461,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9888946350590236, 297.0: 0.005990275426909785, 695.0: 0.005115089514066496}</t>
+    <t>{919.0: 0.9890254656143603, 297.0: 0.005859444871573596, 695.0: 0.005115089514066496}</t>
   </si>
   <si>
     <t>{921.0: 0.9865234019304316, 686.0: 0.013476598069568387}</t>
@@ -2470,7 +2470,7 @@
     <t>{922.0: 0.9315741024854248, 887.0: 0.06842589751457502}</t>
   </si>
   <si>
-    <t>{925.0: 0.9958527083071509, 263.0: 0.004141495125086512, 595.0: 5.796567762552023e-06}</t>
+    <t>{925.0: 0.9958527083071509, 263.0: 0.004141495551461485, 595.0: 5.796141387578684e-06}</t>
   </si>
   <si>
     <t>{928.0: 0.9986957331842742, 922.0: 0.001215021188261221, 887.0: 8.924562746451e-05}</t>
@@ -2488,13 +2488,13 @@
     <t>{937.0: 0.9949109414758269, 85.0: 0.0050890585241730275}</t>
   </si>
   <si>
-    <t>{940.0: 0.98649977479185, 785.0: 0.010626942004023135, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.0009868862223623436}</t>
+    <t>{940.0: 0.98649977479185, 785.0: 0.010096577353725059, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.8000222720249447, 848.0: 0.16133961771190689, 634.0: 0.03863811026314845}</t>
+    <t>{943.0: 0.770064142065748, 848.0: 0.1855094754451809, 634.0: 0.04442638248907136}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
